--- a/Analysis/VisRec Evaluation.xlsx
+++ b/Analysis/VisRec Evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="188">
   <si>
     <t>System</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,10 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100 students</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Electricity Consumption Of Eastern China</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,10 +630,6 @@
   </si>
   <si>
     <t>Gantt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Thanksyy/DeepEye-APIs</t>
@@ -755,6 +747,17 @@
       </rPr>
       <t>cziegler/BX/</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Ask Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepEye/Ask Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -930,16 +933,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -949,6 +943,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1261,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FIJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1298,68 +1304,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4300" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
+      <c r="P1" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:4300" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="13" t="s">
         <v>3</v>
       </c>
@@ -1367,18 +1373,18 @@
         <v>4</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>56</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="O2" s="19"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="13" t="s">
         <v>52</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>55</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>95</v>
@@ -1407,10 +1413,10 @@
         <v>98</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA2" s="10"/>
       <c r="AB2" s="10"/>
@@ -10034,7 +10040,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="C4" s="2">
         <v>2019</v>
@@ -10062,8 +10068,12 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="2">
+        <v>41</v>
+      </c>
       <c r="O4" s="2" t="s">
         <v>41</v>
       </c>
@@ -23087,8 +23097,8 @@
       <c r="M7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>135</v>
+      <c r="N7" s="2">
+        <v>100</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>11</v>
@@ -32482,8 +32492,12 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="M21" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="O21" s="2" t="s">
         <v>22</v>
       </c>
@@ -32783,11 +32797,6 @@
     <filterColumn colId="23" showButton="0"/>
   </autoFilter>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:Z1"/>
     <mergeCell ref="B1:B2"/>
@@ -32796,6 +32805,11 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32806,8 +32820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -32819,251 +32833,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>185</v>
+      <c r="D1" s="22" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>186</v>
+      <c r="D4" s="19" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>148</v>
+      <c r="D9" s="20" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>148</v>
+      <c r="D10" s="20" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="A11" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>148</v>
+      <c r="D11" s="20" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>147</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>148</v>
+      <c r="D13" s="20" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="A14" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>148</v>
+      <c r="D14" s="20" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>148</v>
+      <c r="D15" s="20" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="23" t="s">
+      <c r="A16" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>148</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24" t="s">
+      <c r="D17" s="20" t="s">
         <v>151</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>155</v>
+      <c r="D18" s="20" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -33101,7 +33115,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -33115,7 +33129,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33129,7 +33143,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33143,21 +33157,21 @@
         <v>15</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="4">
         <v>2019</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33171,7 +33185,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33185,7 +33199,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -33199,7 +33213,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -33213,7 +33227,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33239,7 +33253,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -33253,7 +33267,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33279,7 +33293,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -33341,7 +33355,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -33367,7 +33381,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">

--- a/Analysis/VisRec Evaluation.xlsx
+++ b/Analysis/VisRec Evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="223">
   <si>
     <t>System</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,10 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Voyager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Movies from IMDB and Rotten Tomatoes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,10 +536,6 @@
   </si>
   <si>
     <t>Quantify</t>
-  </si>
-  <si>
-    <t>Crowd-sourced</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Electricity Consumption Of Eastern China</t>
@@ -760,12 +752,147 @@
     <t>DeepEye/Ask Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voyager/Keshif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crowd-sourced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter/Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voyager/Draco/Dziban/Keshif/SeeDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Housing prices Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hospital data about diabetic patients</t>
+  </si>
+  <si>
+    <t>medicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer Loan dataset</t>
+  </si>
+  <si>
+    <t>Housing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepEye/SeeDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeeDB</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zillow.com/research/data/</t>
+  </si>
+  <si>
+    <t>Zillow real estate data</t>
+  </si>
+  <si>
+    <t>zenvisage</t>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polaris(Tableau)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock prices for  Standard &amp; Poor's companies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>HARVEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status of bridges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridges</t>
+  </si>
+  <si>
+    <t>Quantify/Crowd-sourced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantify/User study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water quality data</t>
+  </si>
+  <si>
+    <t>disasters database</t>
+  </si>
+  <si>
+    <t>obesity data</t>
+  </si>
+  <si>
+    <t>a world wide quality-of-life index</t>
+  </si>
+  <si>
+    <t>Profiler</t>
+  </si>
+  <si>
+    <t>public government data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anomalies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,8 +956,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,6 +986,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,7 +1024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -944,7 +1084,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,6 +1098,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1267,105 +1419,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FIJ26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="6" style="11" customWidth="1"/>
     <col min="2" max="2" width="16.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="11" customWidth="1"/>
     <col min="12" max="12" width="15.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="11" customWidth="1"/>
     <col min="15" max="15" width="18.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.44140625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="11" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="7.21875" style="11" customWidth="1"/>
+    <col min="20" max="20" width="5.21875" style="11" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="9.77734375" style="11" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" style="11" customWidth="1"/>
+    <col min="24" max="24" width="8.5546875" style="11" customWidth="1"/>
+    <col min="25" max="25" width="4.44140625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="6" style="5" customWidth="1"/>
     <col min="27" max="4300" width="8.88671875" style="5"/>
     <col min="4301" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4300" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
+      <c r="P1" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
     </row>
     <row r="2" spans="1:4300" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="13" t="s">
         <v>3</v>
       </c>
@@ -1373,18 +1525,18 @@
         <v>4</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>177</v>
+      <c r="M2" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="O2" s="24"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="13" t="s">
         <v>52</v>
       </c>
@@ -1398,7 +1550,7 @@
         <v>55</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>95</v>
@@ -1413,10 +1565,10 @@
         <v>98</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA2" s="10"/>
       <c r="AB2" s="10"/>
@@ -5724,10 +5876,14 @@
       <c r="J3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="M3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>112</v>
@@ -10036,11 +10192,11 @@
       <c r="FIJ3" s="5"/>
     </row>
     <row r="4" spans="1:4300" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2">
         <v>2019</v>
@@ -10066,8 +10222,12 @@
       <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="M4" s="18" t="s">
         <v>116</v>
       </c>
@@ -14390,7 +14550,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>47</v>
@@ -14411,10 +14571,10 @@
         <v>89</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>112</v>
+        <v>214</v>
+      </c>
+      <c r="N5" s="2">
+        <v>150</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>26</v>
@@ -18751,7 +18911,7 @@
         <v>69</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>112</v>
@@ -27413,7 +27573,9 @@
       <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>59</v>
       </c>
@@ -27454,7 +27616,7 @@
         <v>49</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>49</v>
@@ -31833,7 +31995,9 @@
       <c r="E10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>59</v>
       </c>
@@ -31852,8 +32016,12 @@
       <c r="L10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="2">
+        <v>27</v>
+      </c>
       <c r="O10" s="2" t="s">
         <v>36</v>
       </c>
@@ -31893,7 +32061,9 @@
       <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>59</v>
       </c>
@@ -31906,10 +32076,18 @@
       <c r="J11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="K11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="23">
+        <v>6</v>
+      </c>
       <c r="O11" s="2" t="s">
         <v>22</v>
       </c>
@@ -32039,7 +32217,7 @@
         <v>73</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="N13" s="2">
         <v>70</v>
@@ -32079,7 +32257,7 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="30" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="2">
@@ -32110,8 +32288,12 @@
       <c r="L14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="23">
+        <v>12</v>
+      </c>
       <c r="O14" s="2" t="s">
         <v>16</v>
       </c>
@@ -32151,7 +32333,9 @@
       <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>59</v>
       </c>
@@ -32162,10 +32346,18 @@
       <c r="J15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="K15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="O15" s="2" t="s">
         <v>44</v>
       </c>
@@ -32185,7 +32377,7 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="2">
@@ -32197,7 +32389,9 @@
       <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>59</v>
       </c>
@@ -32210,12 +32404,18 @@
       <c r="J16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="L16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="M16" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="N16" s="2">
+        <v>16</v>
+      </c>
       <c r="O16" s="2" t="s">
         <v>20</v>
       </c>
@@ -32255,7 +32455,9 @@
       <c r="E17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>59</v>
       </c>
@@ -32268,30 +32470,60 @@
       <c r="J17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17" s="23">
+        <v>12</v>
+      </c>
       <c r="O17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="P17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="T17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="U17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="V17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="W17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="X17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z17" s="23" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="18" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="30" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="2">
@@ -32303,23 +32535,33 @@
       <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="2"/>
+      <c r="F18" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="I18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="23" t="s">
+        <v>222</v>
+      </c>
       <c r="L18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="O18" s="2" t="s">
         <v>34</v>
       </c>
@@ -32359,7 +32601,9 @@
       <c r="E19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="23" t="s">
+        <v>207</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>59</v>
       </c>
@@ -32372,12 +32616,18 @@
       <c r="J19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="L19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="N19" s="23">
+        <v>32</v>
+      </c>
       <c r="O19" s="2" t="s">
         <v>24</v>
       </c>
@@ -32417,7 +32667,9 @@
       <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="G20" s="2" t="s">
         <v>59</v>
       </c>
@@ -32430,12 +32682,18 @@
       <c r="J20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="L20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="M20" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="N20" s="2">
+        <v>20</v>
+      </c>
       <c r="O20" s="2" t="s">
         <v>19</v>
       </c>
@@ -32490,10 +32748,14 @@
       <c r="J21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="K21" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="M21" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N21" s="18" t="s">
         <v>112</v>
@@ -32539,11 +32801,15 @@
       <c r="E22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="I22" s="3" t="s">
         <v>38</v>
       </c>
@@ -32553,9 +32819,15 @@
       <c r="K22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="L22" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="O22" s="2" t="s">
         <v>6</v>
       </c>
@@ -32573,7 +32845,9 @@
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="V22" s="29" t="s">
+        <v>190</v>
+      </c>
       <c r="W22" s="2"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
@@ -32584,7 +32858,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2">
         <v>2000</v>
@@ -32595,7 +32869,9 @@
       <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>59</v>
       </c>
@@ -32608,10 +32884,18 @@
       <c r="J23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="K23" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="O23" s="2" t="s">
         <v>63</v>
       </c>
@@ -32651,7 +32935,9 @@
       <c r="E24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>59</v>
       </c>
@@ -32670,8 +32956,12 @@
       <c r="L24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="M24" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>205</v>
+      </c>
       <c r="O24" s="2" t="s">
         <v>33</v>
       </c>
@@ -32711,7 +33001,9 @@
       <c r="E25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="G25" s="2" t="s">
         <v>59</v>
       </c>
@@ -32730,8 +33022,12 @@
       <c r="L25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="O25" s="2" t="s">
         <v>8</v>
       </c>
@@ -32797,6 +33093,11 @@
     <filterColumn colId="23" showButton="0"/>
   </autoFilter>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:Z1"/>
     <mergeCell ref="B1:B2"/>
@@ -32805,11 +33106,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32818,17 +33114,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="76.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32843,7 +33139,7 @@
         <v>102</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -32885,7 +33181,7 @@
         <v>104</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -32896,113 +33192,113 @@
         <v>119</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="C7" s="21" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>132</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>101</v>
@@ -33011,73 +33307,193 @@
         <v>10</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -33115,7 +33531,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -33129,7 +33545,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33143,7 +33559,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33157,21 +33573,21 @@
         <v>15</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5" s="4">
         <v>2019</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33185,7 +33601,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33199,7 +33615,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -33213,7 +33629,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -33227,7 +33643,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33253,7 +33669,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -33267,7 +33683,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33293,7 +33709,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -33355,7 +33771,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -33381,7 +33797,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
